--- a/Tablet/Posts/Action 8/Results.xlsx
+++ b/Tablet/Posts/Action 8/Results.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Instagram\Tablet\Publicaciones\Foto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALARCOS\Desktop\InstagramEnergyConsumption\Tablet\Posts\Action 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DED45C-7E56-4B1B-90B9-E6710FD581A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530CCFC6-DE2F-4E77-89AB-AB502E6AA827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabla de pruebas" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabla total" sheetId="2" r:id="rId2"/>
+    <sheet name="Measurements table" sheetId="1" r:id="rId1"/>
+    <sheet name="Total table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -251,9 +251,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -291,7 +291,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -397,7 +397,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -539,7 +539,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -549,18 +549,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F171"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +570,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -578,7 +578,7 @@
         <v>17655</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -586,7 +586,7 @@
         <v>17.655000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -606,7 +606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -626,7 +626,7 @@
         <v>0.98665999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -646,7 +646,7 @@
         <v>2.5236100000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -666,7 +666,7 @@
         <v>1.53695</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -686,7 +686,7 @@
         <v>1.4485663888888889</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -706,7 +706,7 @@
         <v>1.06864</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -726,7 +726,7 @@
         <v>1.6954275000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -746,7 +746,7 @@
         <v>0.62678750000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -766,7 +766,7 @@
         <v>0.44597037488510238</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -786,7 +786,7 @@
         <v>0.19888957527515874</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -806,7 +806,7 @@
         <v>1.3391199999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -826,7 +826,7 @@
         <v>1.3914580000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -846,7 +846,7 @@
         <v>1.71272</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -866,7 +866,7 @@
         <v>1.3898025817175887</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -886,7 +886,7 @@
         <v>0.2973699999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -906,7 +906,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -916,7 +916,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -924,7 +924,7 @@
         <v>18162</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -932,7 +932,7 @@
         <v>18.161999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -952,7 +952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -972,7 +972,7 @@
         <v>0.96823999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -992,7 +992,7 @@
         <v>2.4872999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>1.5190599999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>1.4617535135135136</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>1.074495</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>1.77363</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>0.69913500000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>0.45921162051097131</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>0.2108753124123123</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>18</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>1.2927999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>1.4195932258064516</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>20</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>1.6543399999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>1.3983052357927128</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>0.26607999999999987</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
@@ -1262,7 +1262,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>1</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>17657</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>17.657</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>9</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>0.95035000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>10</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>2.4503499999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>11</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>1.4999999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>12</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>1.4524622222222221</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>13</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>1.058805</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>14</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>1.74017</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>0.681365</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>0.4744328561201776</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>17</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>0.22508653496634914</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>18</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>1.2412999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>19</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>1.4067026666666667</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>20</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>1.6618550000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>21</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>1.3850411843761679</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>22</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>0.23241999999999985</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>23</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>26</v>
       </c>
@@ -1608,7 +1608,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>1</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>18165</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>2</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>18.164999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>0.97194000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>10</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>2.50108</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>11</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>1.5291399999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>12</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>1.4358391891891893</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>13</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>1.0803050000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>14</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>1.8000099999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>15</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>0.71970499999999982</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>16</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>0.46103644782633435</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>17</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>0.21255460622432432</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>18</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>1.19482</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>19</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>1.3830193548387097</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>20</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>1.67015</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>21</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>1.3734218936221483</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>22</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>0.18093000000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>23</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>27</v>
       </c>
@@ -1954,7 +1954,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>1</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>18162</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>2</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>18.161999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>9</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>0.97226000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>10</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>2.6112600000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>11</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>1.6390000000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>12</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>1.4779108108108108</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>13</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>1.1097049999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>14</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>1.83952</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>15</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>0.7298150000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>16</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>0.45973996682532031</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>17</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>0.2113608370965466</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>18</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>1.31158</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>19</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>1.4313329032258064</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>20</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>1.6061350000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>21</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>1.4158571929351074</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>22</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>0.26963999999999988</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>23</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>28</v>
       </c>
@@ -2300,7 +2300,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>1</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>18161</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>2</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>18.161000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>0.98479000000000005</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>10</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>2.2966700000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>11</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>1.3118800000000002</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>12</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>1.4427391891891892</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>13</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>1.0888599999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>14</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>1.7150749999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>15</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>0.62621499999999997</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>16</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>0.44183461628996668</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>17</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>0.19521782815210206</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>18</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>1.28559</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>19</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>1.4050274193548387</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>20</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>1.6293</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>21</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>1.383299463370105</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>22</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>0.26732</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>23</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>29</v>
       </c>
@@ -2646,7 +2646,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>1</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>16651</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>2</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>16.651</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>9</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>0.96443000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>10</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>2.4637799999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>11</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>1.4993499999999997</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>12</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>1.4723708823529411</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>13</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>1.0935699999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>14</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>1.8275999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>15</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>0.73402999999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>16</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>0.46012810818469035</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>17</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>0.21171787594162211</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>18</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>1.2107299999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>19</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>1.4353907142857143</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>20</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>1.6081050000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>21</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>1.4083113377134764</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>22</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>0.22280999999999984</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>23</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>30</v>
       </c>
@@ -2992,7 +2992,7 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>1</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>18162</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>2</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>18.161999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>9</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>0.95848</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>10</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>2.9083199999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>11</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>1.9498399999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>12</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>1.4717008108108107</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>13</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>1.0526249999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>14</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>1.85792</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>15</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>0.80529500000000009</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>16</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>0.5056130563285326</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>17</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>0.2556445627298799</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>18</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>1.33674</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>19</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>1.4154412903225806</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>20</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>1.6363400000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>21</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>1.3975451397129923</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>22</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>0.31252000000000013</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>23</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>31</v>
       </c>
@@ -3338,7 +3338,7 @@
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>1</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>17153</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>2</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>17.152999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>3</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>9</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>0.99260000000000004</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>10</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>2.3836900000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>11</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>1.3910900000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>12</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>1.4805942857142858</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>13</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>1.0705499999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>14</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>1.7977099999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>15</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>0.72716000000000003</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>16</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>0.4602229083778841</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>17</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>0.21180512539579832</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>18</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>1.33724</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>19</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>1.4398772413793104</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>20</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>1.67608</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>21</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>1.4171121054970945</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>22</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>0.29079999999999995</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>23</v>
       </c>
@@ -3683,26 +3683,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>0.95035000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>2.9083199999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>1.9579699999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>1.4604374769657613</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>1.0775061111111111</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>1.7830069444444445</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>0.70550083333333347</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>1.6222853141227157E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>2.6318096404182387E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>1.2833244444444445</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>1.461071973969768</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>1.4616667374517376</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>1.4603572768228235</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>1.318712462462468E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>25.951649424020029</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>44</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>22.972768711111108</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>24.516447562058822</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>26.841816145945945</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>0.74461767751665053</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G24">
         <f>G17-(G3*B6)</f>
         <v>9.0641411129089207</v>

--- a/Tablet/Posts/Action 8/Results.xlsx
+++ b/Tablet/Posts/Action 8/Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALARCOS\Desktop\InstagramEnergyConsumption\Tablet\Posts\Action 8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pruebasaluuclm-my.sharepoint.com/personal/elisa_jimenez_uclm_es/Documents/Elisa/Estudio instagram/Measurements/Tablet/Posts/Action 8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530CCFC6-DE2F-4E77-89AB-AB502E6AA827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{A4DED45C-7E56-4B1B-90B9-E6710FD581A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70917696-CAAF-4391-B862-E9A89D0E6579}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measurements table" sheetId="1" r:id="rId1"/>
@@ -165,19 +165,19 @@
     <t>GeometricMean (w) (Time in s)</t>
   </si>
   <si>
-    <t>Mean - Consumption (w/s)</t>
-  </si>
-  <si>
-    <t>Median - Consumption (w/s)</t>
-  </si>
-  <si>
-    <t>Min Measurement Consumption(w/s) (Time in s)</t>
-  </si>
-  <si>
-    <t>Max Measurement Consumption(w/s) (Time in s)</t>
-  </si>
-  <si>
-    <t>SD Measurement Consumption(w/s) (Time in s)</t>
+    <t>Mean - Consumption (w*s)</t>
+  </si>
+  <si>
+    <t>Median - Consumption (w*s)</t>
+  </si>
+  <si>
+    <t>Min Measurement Consumption(w*s) (Time in s)</t>
+  </si>
+  <si>
+    <t>Max Measurement Consumption(w*s) (Time in s)</t>
+  </si>
+  <si>
+    <t>SD Measurement Consumption(w*s) (Time in s)</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0"/>
+    <sheetView topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="C176" sqref="C176"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3683,8 +3685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
